--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -14,9 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>predictions</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>predictions_1</t>
+  </si>
+  <si>
+    <t>predictions_2</t>
+  </si>
+  <si>
+    <t>predictions_3</t>
+  </si>
+  <si>
+    <t>predictions_4</t>
+  </si>
+  <si>
+    <t>predictions_5</t>
+  </si>
+  <si>
+    <t>predictions_6</t>
+  </si>
+  <si>
+    <t>predictions_7</t>
   </si>
   <si>
     <t>growth_index</t>
@@ -25,34 +46,34 @@
     <t>analisis r2</t>
   </si>
   <si>
-    <t>ABEV3.SA</t>
-  </si>
-  <si>
-    <t>BEEF3.SA</t>
-  </si>
-  <si>
-    <t>JBSS3.SA</t>
+    <t>ultimo_preco</t>
+  </si>
+  <si>
+    <t>delta_ultimo_preco_vs_1_prediction</t>
+  </si>
+  <si>
+    <t>delta_1_prediction_vs_2_prediction</t>
+  </si>
+  <si>
+    <t>delta_2_prediction_vs_3_prediction</t>
+  </si>
+  <si>
+    <t>delta_3_prediction_vs_4_prediction</t>
+  </si>
+  <si>
+    <t>delta_4_prediction_vs_5_prediction</t>
+  </si>
+  <si>
+    <t>delta_5_prediction_vs_6_prediction</t>
+  </si>
+  <si>
+    <t>delta_6_prediction_vs_7_prediction</t>
   </si>
   <si>
     <t>ITSA4.SA</t>
   </si>
   <si>
     <t>PETR3.SA</t>
-  </si>
-  <si>
-    <t>[12.970963374718607, 18.8186952345078, 23.8772030183394, 26.768078762529285, 28.28834318014492, 29.106169496456005, 29.559807758955913]</t>
-  </si>
-  <si>
-    <t>[6.897614083881294, 10.886106963259863, 16.597809721967565, 21.834657539303066, 25.478997958932723, 27.720115947833506, 29.04110337499162]</t>
-  </si>
-  <si>
-    <t>[20.912238601699016, 31.124733882879127, 41.09610885568645, 47.80700144776574, 51.88830180796549, 54.40435192014456, 55.999373723629105]</t>
-  </si>
-  <si>
-    <t>[10.215777396401338, 13.06546109437477, 15.030580064993048, 16.09335398617077, 16.652982986601273, 16.95992905079766, 17.127631701163413]</t>
-  </si>
-  <si>
-    <t>[38.99240933158262, 61.04508402886086, 68.62419000225964, 70.60484097886183, 70.93942198515106, 70.75109976772637, 70.32545678442602]</t>
   </si>
 </sst>
 </file>
@@ -410,91 +431,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>10.45422884127583</v>
       </c>
       <c r="C2">
-        <v>127.8921534584719</v>
+        <v>11.22809856623553</v>
       </c>
       <c r="D2">
-        <v>87.53961156593213</v>
+        <v>12.0867511430697</v>
+      </c>
+      <c r="E2">
+        <v>12.75533252936839</v>
+      </c>
+      <c r="F2">
+        <v>13.19144673365736</v>
+      </c>
+      <c r="G2">
+        <v>13.44083089038486</v>
+      </c>
+      <c r="H2">
+        <v>13.56252942915853</v>
+      </c>
+      <c r="I2">
+        <v>29.73247128100325</v>
+      </c>
+      <c r="J2">
+        <v>79.33427948756794</v>
+      </c>
+      <c r="K2">
+        <v>10.43000030517578</v>
+      </c>
+      <c r="L2">
+        <v>0.2322966001067739</v>
+      </c>
+      <c r="M2">
+        <v>7.402456333309582</v>
+      </c>
+      <c r="N2">
+        <v>7.647355175668458</v>
+      </c>
+      <c r="O2">
+        <v>5.531522725873628</v>
+      </c>
+      <c r="P2">
+        <v>3.419073577931764</v>
+      </c>
+      <c r="Q2">
+        <v>1.89049891010975</v>
+      </c>
+      <c r="R2">
+        <v>0.9054391039227339</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>37.87024312050949</v>
       </c>
       <c r="C3">
-        <v>321.0311423896039</v>
+        <v>41.34436253349327</v>
       </c>
       <c r="D3">
-        <v>89.56852250535034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>167.7827792146529</v>
-      </c>
-      <c r="D4">
-        <v>90.98740987575573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>67.65862289831099</v>
-      </c>
-      <c r="D5">
-        <v>92.15682893029424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>80.356787359289</v>
-      </c>
-      <c r="D6">
-        <v>90.65584936649765</v>
+        <v>43.26341375248172</v>
+      </c>
+      <c r="E3">
+        <v>44.28320988827728</v>
+      </c>
+      <c r="F3">
+        <v>44.85279995381189</v>
+      </c>
+      <c r="G3">
+        <v>45.14278428635863</v>
+      </c>
+      <c r="H3">
+        <v>45.26521323270936</v>
+      </c>
+      <c r="I3">
+        <v>19.52712605690923</v>
+      </c>
+      <c r="J3">
+        <v>82.52300908964297</v>
+      </c>
+      <c r="K3">
+        <v>36.97999954223633</v>
+      </c>
+      <c r="L3">
+        <v>2.407365033242859</v>
+      </c>
+      <c r="M3">
+        <v>9.173744678449891</v>
+      </c>
+      <c r="N3">
+        <v>4.641627301506501</v>
+      </c>
+      <c r="O3">
+        <v>2.357179074286675</v>
+      </c>
+      <c r="P3">
+        <v>1.286243853983571</v>
+      </c>
+      <c r="Q3">
+        <v>0.6465244819618077</v>
+      </c>
+      <c r="R3">
+        <v>0.2712037998677808</v>
       </c>
     </row>
   </sheetData>
